--- a/xlsx/埃里克·默勒_intext.xlsx
+++ b/xlsx/埃里克·默勒_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="426">
   <si>
     <t>埃里克·默勒</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_埃里克·默勒</t>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_埃里克·默勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%BE%9E%E6%A5%AD%E5%93%A1</t>
   </si>
   <si>
-    <t>新聞從業員</t>
+    <t>新闻从业员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>公民媒體</t>
+    <t>公民媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%AE%A2</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%97</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>禮儀</t>
+    <t>礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%88%86%E4%BA%AB</t>
   </si>
   <si>
-    <t>檔案分享</t>
+    <t>档案分享</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%91%E9%83%81%E7%97%87</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E7%95%A5_(%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>侵略 (社會科學)</t>
+    <t>侵略 (社会科学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%AB%E7%94%A8%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>濫用藥物</t>
+    <t>滥用药物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E4%BF%83%E8%BF%9B%E4%BC%9A</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E4%B8%83%E4%B8%83%E7%88%86%E7%82%B8%E6%A1%88</t>
   </si>
   <si>
-    <t>倫敦七七爆炸案</t>
+    <t>伦敦七七爆炸案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%90%A5%E5%88%A9%E7%BB%84%E7%BB%87</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%B3%BB%E7%BB%9F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%94%9F%E5%91%BD%E5%A4%A7%E7%99%BE%E7%A7%91</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%BC%97%C2%B7%E6%96%AF%E9%9A%86%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>艾爾弗·斯隆基金</t>
+    <t>艾尔弗·斯隆基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>德文維基百科</t>
+    <t>德文维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Toronto,_Canada</t>
@@ -323,9 +323,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_Wikipedia</t>
   </si>
   <si>
@@ -335,31 +332,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -455,21 +452,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -479,43 +473,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -533,55 +527,52 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -593,25 +584,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -623,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -653,25 +644,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -683,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -701,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -725,25 +716,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -755,19 +746,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -827,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -845,13 +836,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -869,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -899,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -995,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -1037,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -1097,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -1157,7 +1148,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1247,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://it.wikipedia.org/wiki/Nonciclopedia</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
@@ -3122,7 +3113,7 @@
         <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G51" t="n">
         <v>17</v>
@@ -3148,10 +3139,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3177,10 +3168,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>54</v>
@@ -3206,10 +3197,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3235,10 +3226,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3264,10 +3255,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3293,10 +3284,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3322,10 +3313,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3351,10 +3342,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3380,10 +3371,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3409,10 +3400,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3438,10 +3429,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3467,10 +3458,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3496,10 +3487,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3525,10 +3516,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3554,10 +3545,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3583,10 +3574,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3612,10 +3603,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3641,10 +3632,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3670,10 +3661,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3699,10 +3690,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3728,10 +3719,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3757,10 +3748,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3786,10 +3777,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3815,10 +3806,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -3844,10 +3835,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3873,10 +3864,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3902,10 +3893,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3931,10 +3922,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3960,10 +3951,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3989,10 +3980,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4018,10 +4009,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4047,10 +4038,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4076,10 +4067,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4105,10 +4096,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4134,10 +4125,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4163,10 +4154,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4192,10 +4183,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4221,10 +4212,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4250,10 +4241,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4279,10 +4270,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4308,10 +4299,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4337,10 +4328,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4366,10 +4357,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4395,10 +4386,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4424,10 +4415,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4453,10 +4444,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4482,10 +4473,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4511,10 +4502,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4540,10 +4531,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4598,10 +4589,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4627,10 +4618,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4656,10 +4647,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4685,10 +4676,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4714,10 +4705,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4743,10 +4734,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4772,10 +4763,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4801,10 +4792,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4830,10 +4821,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4859,10 +4850,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4888,10 +4879,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4917,10 +4908,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4946,10 +4937,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4975,10 +4966,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5004,10 +4995,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5033,10 +5024,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5062,10 +5053,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5091,10 +5082,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5120,10 +5111,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5149,10 +5140,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5178,10 +5169,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5207,10 +5198,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5236,10 +5227,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5265,10 +5256,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5294,10 +5285,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5323,10 +5314,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5352,10 +5343,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5381,10 +5372,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5410,10 +5401,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5439,10 +5430,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5468,10 +5459,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5497,10 +5488,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5526,10 +5517,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5555,10 +5546,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5584,10 +5575,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5613,10 +5604,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5642,10 +5633,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5671,10 +5662,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5700,10 +5691,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5758,10 +5749,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5787,10 +5778,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5816,10 +5807,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5845,10 +5836,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5874,10 +5865,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5903,10 +5894,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5932,10 +5923,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5961,10 +5952,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5990,10 +5981,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6019,10 +6010,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6048,10 +6039,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6077,10 +6068,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6106,10 +6097,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6135,10 +6126,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6164,10 +6155,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6193,10 +6184,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6222,10 +6213,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6251,10 +6242,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6280,10 +6271,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6309,10 +6300,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6338,10 +6329,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6367,10 +6358,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6396,10 +6387,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6425,10 +6416,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6454,10 +6445,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6483,10 +6474,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>86</v>
@@ -6512,10 +6503,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6541,10 +6532,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6570,10 +6561,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6599,10 +6590,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6628,10 +6619,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6657,10 +6648,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6686,10 +6677,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6715,10 +6706,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6744,10 +6735,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6773,10 +6764,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6802,10 +6793,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6831,10 +6822,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6860,10 +6851,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6889,10 +6880,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6918,10 +6909,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6947,10 +6938,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6976,10 +6967,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7005,10 +6996,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7034,10 +7025,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7063,10 +7054,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7092,10 +7083,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7121,10 +7112,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7150,10 +7141,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7179,10 +7170,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7208,10 +7199,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7237,10 +7228,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7266,10 +7257,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7295,10 +7286,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7324,10 +7315,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7353,10 +7344,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7382,10 +7373,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7411,10 +7402,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7440,10 +7431,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7469,10 +7460,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7498,10 +7489,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7527,10 +7518,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7556,10 +7547,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7585,10 +7576,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7614,10 +7605,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7643,10 +7634,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7672,10 +7663,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7701,10 +7692,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7730,10 +7721,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -7759,10 +7750,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7788,10 +7779,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7817,10 +7808,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7846,10 +7837,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7875,10 +7866,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7904,10 +7895,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
